--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_18-28.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_18-28.xlsx
@@ -38,6 +38,9 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ADOL 500MG 24 CAPLETS</t>
+  </si>
+  <si>
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
@@ -53,6 +56,12 @@
     <t>1:14</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
@@ -83,9 +92,6 @@
     <t>BLOKATENS 5/160MG 28 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -134,9 +140,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t xml:space="preserve">COXORIZET  90 mg CAPS</t>
+  </si>
+  <si>
     <t>CYMBATEX 30 MG 30 CAPS.</t>
   </si>
   <si>
+    <t>DANTRELAX 25MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -149,6 +161,9 @@
     <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -185,6 +200,9 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -230,6 +248,12 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
+    <t>NAN PRE MILK 400 GM</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
     <t>NOVOCOBAL 1 MG 30 SUBLINGUAL TABS.</t>
   </si>
   <si>
@@ -302,6 +326,9 @@
     <t>TRIPLIXAM 10/2.5/10MG 15 F.C. TABS.</t>
   </si>
   <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -356,10 +383,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>-1:0</t>
+    <t>-7:0</t>
   </si>
   <si>
     <t>سويت كوكو</t>
@@ -378,6 +408,9 @@
   </si>
   <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>مولفيكس رقم 1</t>
   </si>
   <si>
     <t>Monday, 5 January, 2026 6:28 PM</t>
@@ -999,17 +1032,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -1017,7 +1050,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1025,17 +1058,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>119.5</v>
+        <v>114</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1051,17 +1084,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>71.5</v>
+        <v>119.5</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1069,7 +1102,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1077,17 +1110,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>137</v>
+        <v>71.5</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1109,11 +1142,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1129,17 +1162,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1155,13 +1188,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
@@ -1173,7 +1206,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1181,17 +1214,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1199,7 +1232,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1207,13 +1240,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
@@ -1225,7 +1258,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1233,13 +1266,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -1251,7 +1284,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1259,13 +1292,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
@@ -1277,7 +1310,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1285,13 +1318,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1311,13 +1344,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
@@ -1337,13 +1370,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>16.5</v>
+        <v>150</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1363,17 +1396,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1389,13 +1422,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>550</v>
+        <v>16.5</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1415,17 +1448,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1441,17 +1474,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1459,7 +1492,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1467,13 +1500,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1485,7 +1518,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1493,17 +1526,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1519,17 +1552,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1545,13 +1578,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>85.5</v>
+        <v>102</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1571,17 +1604,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>150</v>
+        <v>444</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1597,17 +1630,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>16</v>
+        <v>85.5</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1623,13 +1656,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1649,17 +1682,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1667,7 +1700,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1675,13 +1708,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1693,7 +1726,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1701,17 +1734,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1.3300000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1719,7 +1752,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1727,17 +1760,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1745,7 +1778,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1753,13 +1786,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1771,7 +1804,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1779,17 +1812,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1797,7 +1830,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1805,17 +1838,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>2</v>
+        <v>1.3300000000000001</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1831,13 +1864,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1857,13 +1890,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1883,13 +1916,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1909,17 +1942,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>2</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1935,17 +1968,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1953,7 +1986,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1961,13 +1994,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1979,7 +2012,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1987,13 +2020,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -2005,7 +2038,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2013,13 +2046,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2031,7 +2064,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2039,17 +2072,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.040000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2057,7 +2090,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2065,17 +2098,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2083,7 +2116,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2091,13 +2124,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2109,7 +2142,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2117,13 +2150,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2135,7 +2168,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2143,17 +2176,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2161,7 +2194,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2169,13 +2202,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2187,7 +2220,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2195,17 +2228,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2221,17 +2254,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>480</v>
+        <v>186</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2247,17 +2280,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2265,7 +2298,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2273,13 +2306,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2291,7 +2324,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2299,17 +2332,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2317,7 +2350,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2325,13 +2358,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2343,7 +2376,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2351,13 +2384,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>136.5</v>
+        <v>116</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2369,7 +2402,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2377,17 +2410,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>67</v>
+        <v>480</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2395,7 +2428,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2403,17 +2436,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2421,7 +2454,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2429,13 +2462,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2447,7 +2480,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2455,13 +2488,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2473,7 +2506,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2481,13 +2514,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2499,7 +2532,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2507,13 +2540,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>75</v>
+        <v>136.5</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2525,7 +2558,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2533,13 +2566,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2551,7 +2584,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2559,17 +2592,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2577,7 +2610,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2585,13 +2618,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2603,7 +2636,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2611,13 +2644,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2629,7 +2662,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2637,17 +2670,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>14.1</v>
+        <v>75</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2655,7 +2688,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2663,13 +2696,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2681,7 +2714,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2689,13 +2722,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>33.600000000000001</v>
+        <v>102</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2707,7 +2740,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2715,13 +2748,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2733,7 +2766,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2741,13 +2774,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2759,7 +2792,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2767,17 +2800,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2785,7 +2818,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2793,13 +2826,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2811,7 +2844,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2819,13 +2852,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2837,7 +2870,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2845,17 +2878,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>60</v>
+        <v>14.1</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2863,7 +2896,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2871,13 +2904,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -2889,7 +2922,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2897,17 +2930,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>76</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2915,7 +2948,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2923,17 +2956,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2941,7 +2974,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2949,13 +2982,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -2975,17 +3008,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3001,17 +3034,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3019,7 +3052,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3027,17 +3060,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3045,7 +3078,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3053,13 +3086,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3071,7 +3104,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3079,13 +3112,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3097,7 +3130,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3105,17 +3138,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3123,7 +3156,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3131,17 +3164,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>23.5</v>
+        <v>76</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3149,7 +3182,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3157,17 +3190,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3175,7 +3208,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3183,17 +3216,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3201,7 +3234,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3209,17 +3242,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3227,7 +3260,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3235,17 +3268,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3253,7 +3286,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3261,17 +3294,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3279,7 +3312,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3287,13 +3320,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3305,7 +3338,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3313,13 +3346,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3331,7 +3364,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3339,51 +3372,311 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="K96" s="11">
-        <v>8492.7000000000007</v>
-      </c>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="12">
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
+        <v>117</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
+        <v>118</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c r="N96" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
+        <v>119</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>120</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>15</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c r="N97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
+        <v>121</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
+        <v>122</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>8</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c r="N98" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
         <v>123</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c t="s" r="F97" s="13">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
         <v>124</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c t="s" r="I97" s="15">
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>12</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c r="N99" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
         <v>125</v>
       </c>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>126</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>16</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c r="N100" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
+        <v>127</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
+        <v>128</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>25</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c r="N101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
+        <v>129</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
+        <v>130</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>25</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c r="N102" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
+        <v>131</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
+        <v>120</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>50</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c r="N103" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" ht="24.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="B104" s="7">
+        <v>132</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c t="s" r="H104" s="8">
+        <v>120</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="9">
+        <v>20</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c r="N104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>102</v>
+      </c>
+      <c t="s" r="B105" s="7">
+        <v>133</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c t="s" r="H105" s="8">
+        <v>11</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9">
+        <v>300</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c r="N105" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="K106" s="11">
+        <v>9706.7000000000007</v>
+      </c>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="12">
+        <v>134</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c t="s" r="F107" s="13">
+        <v>135</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c t="s" r="I107" s="15">
+        <v>136</v>
+      </c>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="317">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3667,10 +3960,40 @@
     <mergeCell ref="B95:G95"/>
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="I107:N107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
